--- a/results/I3_N5_M3_T30_C100_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1174.681021319067</v>
+        <v>532.5120426959608</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.22991120709133</v>
+        <v>28.51204269596068</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.12083229832975</v>
+        <v>10.91044282103439</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.281942410296509</v>
+        <v>10.91044282103439</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1147.290000000009</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,12 +628,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -929,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.15868643584639</v>
+        <v>21.61595173195241</v>
       </c>
     </row>
     <row r="5">
@@ -953,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>8.384048268047589</v>
       </c>
     </row>
     <row r="7">
@@ -969,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.92351947766122</v>
+        <v>27.38078477376724</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.35028734683124</v>
+        <v>23.17515353959458</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +1054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1086,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1100,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1114,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1128,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,13 +1142,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1107,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1121,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1135,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1149,9 +1204,23 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1265,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1276,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1287,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1298,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1309,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.5050000000014</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1320,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>141.3700000000014</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -1331,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>151.6400000000014</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1342,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>147.3350000000014</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1353,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1364,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1375,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1386,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1397,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1408,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1419,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>62.47500000000007</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1430,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>70.31500000000008</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1441,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>62.66000000000007</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1452,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>73.21000000000006</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -1463,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.06500000000007</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1474,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>170.4799999999998</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -1485,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>173.2749999999997</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1496,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>175.1699999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1507,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.5649999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -1518,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>163.0549999999998</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -1529,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>136.5050000000014</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -1540,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>141.3700000000014</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -1551,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6400000000014</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -1562,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>147.3350000000014</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -1573,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>141.25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1584,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>62.47500000000007</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1595,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>70.31500000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
@@ -1606,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>62.66000000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -1617,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>73.21000000000006</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
@@ -1628,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>74.06500000000007</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1639,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>170.4799999999998</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -1650,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>173.2749999999997</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -1661,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>175.1699999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -1672,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>173.5649999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -1683,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>163.0549999999998</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>36.50500000000139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1741,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>41.37000000000137</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1752,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>51.64000000000138</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1763,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>47.33500000000137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1774,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>41.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1840,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>70.47999999999979</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1851,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>73.27499999999975</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1862,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>75.16999999999979</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1873,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>73.5649999999998</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1884,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>63.05499999999978</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1942,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1953,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1964,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1975,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2096,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2107,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2118,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -2140,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2209,7 +2278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2236,7 +2305,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2247,7 +2316,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2258,7 +2327,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2269,7 +2338,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2283,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2291,10 +2360,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2302,10 +2371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2313,10 +2382,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2324,10 +2393,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2338,53 +2407,9 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
